--- a/reporte_10_22_2020.xlsx
+++ b/reporte_10_22_2020.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="REPORTE PROYECTO Software " sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="REPORTE PROYECTO EduVirtual" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,7 +44,7 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -56,21 +56,6 @@
         <fgColor rgb="00C0C0C0"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CD5C5C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D68910"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00138D75"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -179,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -194,15 +179,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -571,7 +547,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,37 +555,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="36" customWidth="1" min="2" max="2"/>
-    <col width="54" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="15.6" customWidth="1" min="5" max="5"/>
-    <col width="7.199999999999999" customWidth="1" min="6" max="6"/>
+    <col width="44.4" customWidth="1" min="2" max="2"/>
+    <col width="10.8" customWidth="1" min="3" max="3"/>
+    <col width="22.8" customWidth="1" min="4" max="4"/>
+    <col width="16.8" customWidth="1" min="5" max="5"/>
+    <col width="9.6" customWidth="1" min="6" max="6"/>
+    <col width="14.4" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1"/>
     <row r="2">
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">REPORTE PROYECTO SOFTWARE </t>
+          <t>REPORTE PROYECTO EDUVIRTUAL</t>
         </is>
       </c>
       <c r="C2" s="2" t="n"/>
       <c r="D2" s="2" t="n"/>
       <c r="E2" s="2" t="n"/>
-      <c r="F2" s="3" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="3" t="n"/>
     </row>
     <row r="3">
       <c r="B3" s="4" t="n"/>
       <c r="C3" s="5" t="n"/>
       <c r="D3" s="5" t="n"/>
       <c r="E3" s="5" t="n"/>
-      <c r="F3" s="6" t="n"/>
+      <c r="F3" s="5" t="n"/>
+      <c r="G3" s="6" t="n"/>
     </row>
     <row r="4"/>
     <row r="5">
       <c r="B5" s="7" t="inlineStr">
         <is>
-          <t>Generado por: risko_example</t>
+          <t>Generado por: Diego Alirio Carrascal</t>
         </is>
       </c>
     </row>
@@ -624,546 +603,110 @@
     <row r="8">
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>Registros descargados: 19</t>
+          <t>Registros descargados: 2</t>
         </is>
       </c>
     </row>
     <row r="9"/>
     <row r="10">
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Objetivo: </t>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>CODIGO</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>RIESGO</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>CAUSAS</t>
+        </is>
+      </c>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>EVENTO</t>
+        </is>
+      </c>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>EFECTOS</t>
+        </is>
+      </c>
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>RESPONSABLE</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>xd</t>
+      <c r="B11" s="9" t="inlineStr">
+        <is>
+          <t>R_7</t>
+        </is>
+      </c>
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>riesgo_1</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>PILAR ROJAS dfgdfg</t>
+        </is>
+      </c>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>dfgdfgfdgdfgf</t>
+        </is>
+      </c>
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>dfgdfg</t>
+        </is>
+      </c>
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>burro</t>
         </is>
       </c>
     </row>
-    <row r="12"/>
-    <row r="13">
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alcance: </t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>xd</t>
-        </is>
-      </c>
-    </row>
-    <row r="15"/>
-    <row r="16">
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>CÓDIGO</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>RIESGO</t>
-        </is>
-      </c>
-      <c r="D16" s="8" t="inlineStr">
-        <is>
-          <t>IMPACTO</t>
-        </is>
-      </c>
-      <c r="E16" s="8" t="inlineStr">
-        <is>
-          <t>PROBABILIDAD</t>
-        </is>
-      </c>
-      <c r="F16" s="8" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="9" t="inlineStr">
-        <is>
-          <t>R_81</t>
-        </is>
-      </c>
-      <c r="C17" s="9" t="inlineStr">
-        <is>
-          <t>Mal funcionamiento del servidor comprado</t>
-        </is>
-      </c>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>Catastrófico</t>
-        </is>
-      </c>
-      <c r="E17" s="9" t="inlineStr">
-        <is>
-          <t>Certeza</t>
-        </is>
-      </c>
-      <c r="F17" s="10" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="9" t="inlineStr">
-        <is>
-          <t>R_88</t>
-        </is>
-      </c>
-      <c r="C18" s="9" t="inlineStr">
-        <is>
-          <t>Baja aceptación del cliente</t>
-        </is>
-      </c>
-      <c r="D18" s="9" t="inlineStr">
-        <is>
-          <t>Mayor</t>
-        </is>
-      </c>
-      <c r="E18" s="9" t="inlineStr">
-        <is>
-          <t>Certeza</t>
-        </is>
-      </c>
-      <c r="F18" s="10" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="9" t="inlineStr">
-        <is>
-          <t>R_77</t>
-        </is>
-      </c>
-      <c r="C19" s="9" t="inlineStr">
-        <is>
-          <t>Frecuentes cambios por el cliente</t>
-        </is>
-      </c>
-      <c r="D19" s="9" t="inlineStr">
-        <is>
-          <t>Catastrófico</t>
-        </is>
-      </c>
-      <c r="E19" s="9" t="inlineStr">
-        <is>
-          <t>Probable</t>
-        </is>
-      </c>
-      <c r="F19" s="10" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="9" t="inlineStr">
-        <is>
-          <t>R_93</t>
-        </is>
-      </c>
-      <c r="C20" s="9" t="inlineStr">
-        <is>
-          <t>Desarrollo ineficiente del software</t>
-        </is>
-      </c>
-      <c r="D20" s="9" t="inlineStr">
-        <is>
-          <t>Mayor</t>
-        </is>
-      </c>
-      <c r="E20" s="9" t="inlineStr">
-        <is>
-          <t>Probable</t>
-        </is>
-      </c>
-      <c r="F20" s="10" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="9" t="inlineStr">
-        <is>
-          <t>R_94</t>
-        </is>
-      </c>
-      <c r="C21" s="9" t="inlineStr">
-        <is>
-          <t>Recursos económicos insuficientes.</t>
-        </is>
-      </c>
-      <c r="D21" s="9" t="inlineStr">
-        <is>
-          <t>Mayor</t>
-        </is>
-      </c>
-      <c r="E21" s="9" t="inlineStr">
-        <is>
-          <t>Probable</t>
-        </is>
-      </c>
-      <c r="F21" s="10" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="9" t="inlineStr">
-        <is>
-          <t>R_97</t>
-        </is>
-      </c>
-      <c r="C22" s="9" t="inlineStr">
-        <is>
-          <t>Perdida de la señal eléctrica</t>
-        </is>
-      </c>
-      <c r="D22" s="9" t="inlineStr">
-        <is>
-          <t>Moderado</t>
-        </is>
-      </c>
-      <c r="E22" s="9" t="inlineStr">
-        <is>
-          <t>Probable</t>
-        </is>
-      </c>
-      <c r="F22" s="10" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="9" t="inlineStr">
-        <is>
-          <t>R_85</t>
-        </is>
-      </c>
-      <c r="C23" s="9" t="inlineStr">
-        <is>
-          <t>Incumplimiento de las entregas proveedores</t>
-        </is>
-      </c>
-      <c r="D23" s="9" t="inlineStr">
-        <is>
-          <t>Moderado</t>
-        </is>
-      </c>
-      <c r="E23" s="9" t="inlineStr">
-        <is>
-          <t>Moderada</t>
-        </is>
-      </c>
-      <c r="F23" s="11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="9" t="inlineStr">
-        <is>
-          <t>R_95</t>
-        </is>
-      </c>
-      <c r="C24" s="9" t="inlineStr">
-        <is>
-          <t>Demoras en la ejecución de actividades</t>
-        </is>
-      </c>
-      <c r="D24" s="9" t="inlineStr">
-        <is>
-          <t>Moderado</t>
-        </is>
-      </c>
-      <c r="E24" s="9" t="inlineStr">
-        <is>
-          <t>Moderada</t>
-        </is>
-      </c>
-      <c r="F24" s="11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="9" t="inlineStr">
-        <is>
-          <t>R_92</t>
-        </is>
-      </c>
-      <c r="C25" s="9" t="inlineStr">
-        <is>
-          <t>Imprevistos no presupuestados</t>
-        </is>
-      </c>
-      <c r="D25" s="9" t="inlineStr">
-        <is>
-          <t>Mayor</t>
-        </is>
-      </c>
-      <c r="E25" s="9" t="inlineStr">
-        <is>
-          <t>improbable</t>
-        </is>
-      </c>
-      <c r="F25" s="11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="9" t="inlineStr">
-        <is>
-          <t>R_84</t>
-        </is>
-      </c>
-      <c r="C26" s="9" t="inlineStr">
-        <is>
-          <t>Software no satisface las expectativas</t>
-        </is>
-      </c>
-      <c r="D26" s="9" t="inlineStr">
-        <is>
-          <t>Moderado</t>
-        </is>
-      </c>
-      <c r="E26" s="9" t="inlineStr">
-        <is>
-          <t>improbable</t>
-        </is>
-      </c>
-      <c r="F26" s="11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="9" t="inlineStr">
-        <is>
-          <t>R_83</t>
-        </is>
-      </c>
-      <c r="C27" s="9" t="inlineStr">
-        <is>
-          <t>Interfaces no intuitivas a los usuarios</t>
-        </is>
-      </c>
-      <c r="D27" s="9" t="inlineStr">
-        <is>
-          <t>Catastrófico</t>
-        </is>
-      </c>
-      <c r="E27" s="9" t="inlineStr">
-        <is>
-          <t>raro</t>
-        </is>
-      </c>
-      <c r="F27" s="11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="9" t="inlineStr">
-        <is>
-          <t>R_87</t>
-        </is>
-      </c>
-      <c r="C28" s="9" t="inlineStr">
-        <is>
-          <t>Alta competencia en el mercado</t>
-        </is>
-      </c>
-      <c r="D28" s="9" t="inlineStr">
-        <is>
-          <t>Insignificante</t>
-        </is>
-      </c>
-      <c r="E28" s="9" t="inlineStr">
-        <is>
-          <t>Certeza</t>
-        </is>
-      </c>
-      <c r="F28" s="11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="9" t="inlineStr">
-        <is>
-          <t>R_100</t>
-        </is>
-      </c>
-      <c r="C29" s="9" t="inlineStr">
-        <is>
-          <t>Daño de la UPS servidor</t>
-        </is>
-      </c>
-      <c r="D29" s="9" t="inlineStr">
-        <is>
-          <t>Catastrófico</t>
-        </is>
-      </c>
-      <c r="E29" s="9" t="inlineStr">
-        <is>
-          <t>raro</t>
-        </is>
-      </c>
-      <c r="F29" s="11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="9" t="inlineStr">
-        <is>
-          <t>R_86</t>
-        </is>
-      </c>
-      <c r="C30" s="9" t="inlineStr">
-        <is>
-          <t>Recursos financieros alterados</t>
-        </is>
-      </c>
-      <c r="D30" s="9" t="inlineStr">
-        <is>
-          <t>Menor</t>
-        </is>
-      </c>
-      <c r="E30" s="9" t="inlineStr">
-        <is>
-          <t>improbable</t>
-        </is>
-      </c>
-      <c r="F30" s="12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" s="9" t="inlineStr">
-        <is>
-          <t>R_91</t>
-        </is>
-      </c>
-      <c r="C31" s="9" t="inlineStr">
-        <is>
-          <t>Personal contratado insuficiente</t>
-        </is>
-      </c>
-      <c r="D31" s="9" t="inlineStr">
-        <is>
-          <t>Menor</t>
-        </is>
-      </c>
-      <c r="E31" s="9" t="inlineStr">
-        <is>
-          <t>improbable</t>
-        </is>
-      </c>
-      <c r="F31" s="12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" s="9" t="inlineStr">
-        <is>
-          <t>R_89</t>
-        </is>
-      </c>
-      <c r="C32" s="9" t="inlineStr">
-        <is>
-          <t>Mala conexión con el servidor web</t>
-        </is>
-      </c>
-      <c r="D32" s="9" t="inlineStr">
-        <is>
-          <t>Moderado</t>
-        </is>
-      </c>
-      <c r="E32" s="9" t="inlineStr">
-        <is>
-          <t>raro</t>
-        </is>
-      </c>
-      <c r="F32" s="12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" s="9" t="inlineStr">
-        <is>
-          <t>R_90</t>
-        </is>
-      </c>
-      <c r="C33" s="9" t="inlineStr">
-        <is>
-          <t>Suspensión de la plataforma virtual</t>
-        </is>
-      </c>
-      <c r="D33" s="9" t="inlineStr">
-        <is>
-          <t>Moderado</t>
-        </is>
-      </c>
-      <c r="E33" s="9" t="inlineStr">
-        <is>
-          <t>raro</t>
-        </is>
-      </c>
-      <c r="F33" s="12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" s="9" t="inlineStr">
-        <is>
-          <t>R_99</t>
-        </is>
-      </c>
-      <c r="C34" s="9" t="inlineStr">
-        <is>
-          <t>Especificaciones imprecisas de documentación</t>
-        </is>
-      </c>
-      <c r="D34" s="9" t="inlineStr">
-        <is>
-          <t>Moderado</t>
-        </is>
-      </c>
-      <c r="E34" s="9" t="inlineStr">
-        <is>
-          <t>raro</t>
-        </is>
-      </c>
-      <c r="F34" s="12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" s="9" t="inlineStr">
-        <is>
-          <t>R_96</t>
-        </is>
-      </c>
-      <c r="C35" s="9" t="inlineStr">
-        <is>
-          <t>Acciones mal planificadas</t>
-        </is>
-      </c>
-      <c r="D35" s="9" t="inlineStr">
-        <is>
-          <t>Insignificante</t>
-        </is>
-      </c>
-      <c r="E35" s="9" t="inlineStr">
-        <is>
-          <t>raro</t>
-        </is>
-      </c>
-      <c r="F35" s="12" t="n">
-        <v>1</v>
+    <row r="12">
+      <c r="B12" s="9" t="inlineStr">
+        <is>
+          <t>R_29</t>
+        </is>
+      </c>
+      <c r="C12" s="9" t="inlineStr">
+        <is>
+          <t>vacio</t>
+        </is>
+      </c>
+      <c r="D12" s="9" t="inlineStr">
+        <is>
+          <t>{{ñ}</t>
+        </is>
+      </c>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>{ñ}{}</t>
+        </is>
+      </c>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>ñ{}{ñ}</t>
+        </is>
+      </c>
+      <c r="G12" s="9" t="inlineStr">
+        <is>
+          <t>shruek</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="B2:G3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
